--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\每周工作总结\项目\中科APS最新版\APS DOCS竞赛仿真平台\竞赛结果统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DOCS2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605DB2C6-54F4-4B89-BB90-AA34133539F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6B8033-64EF-486A-BC5C-1F932E251AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>num1000_lam0.03_change0__1.txt</t>
   </si>
@@ -248,6 +248,22 @@
   <si>
     <t>请各队伍注意，目前公布的仅为初赛成绩！！
 入围决赛的具体名单将在初赛结束后公布！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化探索者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坤雨风雷队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中的向阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪汪队</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,29 +422,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -733,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -755,11 +774,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -882,11 +901,11 @@
         <v>34</v>
       </c>
       <c r="C3" s="5">
-        <v>45862</v>
+        <v>45877</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D13" si="0">AVERAGE(E3:AM3)</f>
-        <v>0.95588571428571412</v>
+        <f t="shared" ref="D3:D17" si="0">AVERAGE(E3:AM3)</f>
+        <v>0.95682857142857136</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -978,32 +997,32 @@
       <c r="AH3" s="7">
         <v>1</v>
       </c>
-      <c r="AI3" s="1">
-        <v>0.621</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0.79149999999999998</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0.91449999999999998</v>
+      <c r="AI3" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>0.6905</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AL3" s="12">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="AM3" s="12">
+        <v>0.91749999999999998</v>
       </c>
     </row>
     <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5">
-        <v>45868</v>
+        <v>45877</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>0.95120000000000005</v>
+        <v>0.95662857142857138</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1095,383 +1114,383 @@
       <c r="AH4" s="1">
         <v>1</v>
       </c>
-      <c r="AI4" s="10">
-        <v>0.61050000000000004</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="AL4" s="10">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="AM4" s="10">
-        <v>0.86150000000000004</v>
+      <c r="AI4" s="12">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AL4" s="12">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>0.91549999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5">
-        <v>45864</v>
+        <v>45877</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0.94975714285714297</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7">
-        <v>1</v>
-      </c>
-      <c r="V5" s="7">
-        <v>1</v>
-      </c>
-      <c r="W5" s="7">
-        <v>1</v>
-      </c>
-      <c r="X5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="AL5" s="10">
-        <v>0.75449999999999995</v>
-      </c>
-      <c r="AM5" s="10">
-        <v>0.84299999999999997</v>
+        <v>0.95421428571428579</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>0.64449999999999996</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="AL5" s="12">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="AM5" s="12">
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5">
-        <v>45866</v>
+        <v>45876</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0.94960000000000011</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="10">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>0.62350000000000005</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>0.45350000000000001</v>
-      </c>
-      <c r="AL6" s="10">
-        <v>0.70450000000000002</v>
-      </c>
-      <c r="AM6" s="10">
-        <v>0.83650000000000002</v>
+        <v>0.95115714285714292</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>1</v>
+      </c>
+      <c r="R6" s="10">
+        <v>1</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1</v>
+      </c>
+      <c r="T6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10">
+        <v>1</v>
+      </c>
+      <c r="V6" s="10">
+        <v>1</v>
+      </c>
+      <c r="W6" s="10">
+        <v>1</v>
+      </c>
+      <c r="X6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>0.433</v>
+      </c>
+      <c r="AL6" s="12">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
-        <v>45866</v>
+        <v>45876</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0.94351428571428564</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="10">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>0.54949999999999999</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>0.442</v>
-      </c>
-      <c r="AL7" s="10">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="AM7" s="10">
-        <v>0.79749999999999999</v>
+        <v>0.9503571428571429</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
+      <c r="W7" s="7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="AK7" s="12">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="AL7" s="12">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AM7" s="12">
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45867</v>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45866</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>0.94121428571428578</v>
+        <v>0.94351428571428564</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1494,8 +1513,8 @@
       <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="10">
-        <v>0.999</v>
+      <c r="L8" s="1">
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
@@ -1563,32 +1582,32 @@
       <c r="AH8" s="1">
         <v>1</v>
       </c>
-      <c r="AI8" s="10">
+      <c r="AI8" s="12">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AJ8" s="12">
         <v>0.54949999999999999</v>
       </c>
-      <c r="AJ8" s="10">
-        <v>0.54049999999999998</v>
-      </c>
-      <c r="AK8" s="10">
-        <v>0.43149999999999999</v>
-      </c>
-      <c r="AL8" s="10">
-        <v>0.6835</v>
-      </c>
-      <c r="AM8" s="10">
-        <v>0.73850000000000005</v>
+      <c r="AK8" s="12">
+        <v>0.442</v>
+      </c>
+      <c r="AL8" s="12">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="AM8" s="12">
+        <v>0.79749999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45868</v>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45867</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0.93787142857142869</v>
+        <v>0.94121428571428578</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1611,8 +1630,8 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="1">
-        <v>1</v>
+      <c r="L9" s="10">
+        <v>0.999</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
@@ -1680,32 +1699,32 @@
       <c r="AH9" s="1">
         <v>1</v>
       </c>
-      <c r="AI9" s="10">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="AJ9" s="10">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="AK9" s="10">
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="AL9" s="10">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="AM9" s="10">
-        <v>0.72499999999999998</v>
+      <c r="AI9" s="12">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="AL9" s="12">
+        <v>0.6835</v>
+      </c>
+      <c r="AM9" s="12">
+        <v>0.73850000000000005</v>
       </c>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>0.93117142857142865</v>
+        <v>0.93787142857142869</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1729,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
@@ -1797,1084 +1816,1085 @@
       <c r="AH10" s="1">
         <v>1</v>
       </c>
-      <c r="AI10" s="10">
-        <v>0.502</v>
-      </c>
-      <c r="AJ10" s="10">
-        <v>0.4415</v>
-      </c>
-      <c r="AK10" s="10">
-        <v>0.40949999999999998</v>
-      </c>
-      <c r="AL10" s="10">
-        <v>0.55649999999999999</v>
-      </c>
-      <c r="AM10" s="10">
-        <v>0.6825</v>
+      <c r="AI10" s="12">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="AL10" s="12">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="AM10" s="12">
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5">
-        <v>45874</v>
+        <v>45867</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>0.91932857142857138</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10">
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
-      <c r="O11" s="10">
-        <v>1</v>
-      </c>
-      <c r="P11" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>1</v>
-      </c>
-      <c r="R11" s="10">
-        <v>1</v>
-      </c>
-      <c r="S11" s="10">
-        <v>1</v>
-      </c>
-      <c r="T11" s="10">
-        <v>1</v>
-      </c>
-      <c r="U11" s="10">
-        <v>1</v>
-      </c>
-      <c r="V11" s="10">
-        <v>1</v>
-      </c>
-      <c r="W11" s="10">
-        <v>1</v>
-      </c>
-      <c r="X11" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="10">
-        <v>0.26850000000000002</v>
-      </c>
-      <c r="AJ11" s="10">
-        <v>0.39850000000000002</v>
-      </c>
-      <c r="AK11" s="10">
-        <v>0.20949999999999999</v>
-      </c>
-      <c r="AL11" s="10">
-        <v>0.63149999999999995</v>
-      </c>
-      <c r="AM11" s="10">
-        <v>0.66849999999999998</v>
+        <v>0.93117142857142865</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>0.502</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>0.4415</v>
+      </c>
+      <c r="AK11" s="12">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="AL11" s="12">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="AM11" s="12">
+        <v>0.6825</v>
       </c>
     </row>
     <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5">
-        <v>45862</v>
+        <v>45874</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>0.86981142857142857</v>
+        <v>0.91932857142857138</v>
       </c>
       <c r="E12" s="10">
-        <v>0.99199999999999999</v>
+        <v>1</v>
       </c>
       <c r="F12" s="10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G12" s="10">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="H12" s="10">
-        <v>0.99299999999999999</v>
+        <v>1</v>
       </c>
       <c r="I12" s="10">
-        <v>0.99199999999999999</v>
+        <v>1</v>
       </c>
       <c r="J12" s="10">
-        <v>0.99099999999999999</v>
+        <v>1</v>
       </c>
       <c r="K12" s="10">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="L12" s="10">
-        <v>0.97599999999999998</v>
+        <v>1</v>
       </c>
       <c r="M12" s="10">
-        <v>0.99199999999999999</v>
+        <v>1</v>
       </c>
       <c r="N12" s="10">
-        <v>0.98899999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12" s="10">
-        <v>0.98599999999999999</v>
+        <v>1</v>
       </c>
       <c r="P12" s="10">
-        <v>0.98980000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="10">
-        <v>0.99180000000000001</v>
+        <v>1</v>
       </c>
       <c r="R12" s="10">
-        <v>0.99199999999999999</v>
+        <v>1</v>
       </c>
       <c r="S12" s="10">
-        <v>0.99860000000000004</v>
+        <v>1</v>
       </c>
       <c r="T12" s="10">
-        <v>0.99860000000000004</v>
+        <v>1</v>
       </c>
       <c r="U12" s="10">
-        <v>0.99539999999999995</v>
+        <v>1</v>
       </c>
       <c r="V12" s="10">
-        <v>0.99839999999999995</v>
+        <v>1</v>
       </c>
       <c r="W12" s="10">
-        <v>0.99880000000000002</v>
+        <v>1</v>
       </c>
       <c r="X12" s="10">
-        <v>0.99860000000000004</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="10">
-        <v>0.78639999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="10">
-        <v>0.79659999999999997</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="10">
-        <v>0.78269999999999995</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="10">
-        <v>0.76910000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="10">
-        <v>0.91020000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="10">
-        <v>0.89359999999999995</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="10">
-        <v>0.89810000000000001</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="10">
-        <v>0.94030000000000002</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="10">
-        <v>0.94430000000000003</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="10">
-        <v>0.94810000000000005</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0.28549999999999998</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>0.214</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>0.60150000000000003</v>
+        <v>1</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>0.39850000000000002</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="AL12" s="12">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="AM12" s="12">
+        <v>0.66849999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5">
-        <v>45861</v>
+        <v>45876</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
+        <v>0.893462857142857</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.995</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0.9738</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="T13" s="10">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="U13" s="10">
+        <v>0.9788</v>
+      </c>
+      <c r="V13" s="10">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="W13" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="X13" s="10">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>0.8992</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="AH13" s="10">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="AK13" s="12">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="AL13" s="12">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="AM13" s="12">
+        <v>0.75349999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45862</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86981142857142857</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.995</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="T14" s="10">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="U14" s="10">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="V14" s="10">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="X14" s="10">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0.28549999999999998</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0.214</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0.60150000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45876</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86005714285714274</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>1</v>
+      </c>
+      <c r="R15" s="10">
+        <v>1</v>
+      </c>
+      <c r="S15" s="10">
+        <v>1</v>
+      </c>
+      <c r="T15" s="10">
+        <v>1</v>
+      </c>
+      <c r="U15" s="10">
+        <v>1</v>
+      </c>
+      <c r="V15" s="10">
+        <v>1</v>
+      </c>
+      <c r="W15" s="10">
+        <v>1</v>
+      </c>
+      <c r="X15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="12">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="AJ15" s="12">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AK15" s="12">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="AL15" s="12">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="AM15" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45876</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73310571428571447</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0.8528</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="V16" s="10">
+        <v>0.9708</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="X16" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>0.6704</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>0.20449999999999999</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="AL16" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AM16" s="12">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45861</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
         <v>0.6344914285714286</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E17" s="7">
         <v>0.96299999999999997</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F17" s="7">
         <v>0.92100000000000004</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G17" s="7">
         <v>0.96199999999999997</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H17" s="7">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I17" s="7">
         <v>0.97799999999999998</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J17" s="7">
         <v>0.97699999999999998</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K17" s="7">
         <v>0.97899999999999998</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L17" s="7">
         <v>0.89600000000000002</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M17" s="7">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N17" s="7">
         <v>0.97499999999999998</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O17" s="7">
         <v>0.68859999999999999</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P17" s="7">
         <v>0.70660000000000001</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q17" s="7">
         <v>0.7258</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R17" s="7">
         <v>0.71760000000000002</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S17" s="7">
         <v>0.9234</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T17" s="7">
         <v>0.90080000000000005</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U17" s="7">
         <v>0.88759999999999994</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V17" s="7">
         <v>0.95279999999999998</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W17" s="7">
         <v>0.95920000000000005</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X17" s="7">
         <v>0.96419999999999995</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y17" s="7">
         <v>0.2429</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="Z17" s="7">
         <v>0.24679999999999999</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA17" s="7">
         <v>0.22869999999999999</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB17" s="7">
         <v>0.2157</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC17" s="7">
         <v>0.49580000000000002</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AD17" s="7">
         <v>0.4526</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AE17" s="7">
         <v>0.44669999999999999</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AF17" s="7">
         <v>0.62229999999999996</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AG17" s="7">
         <v>0.60329999999999995</v>
       </c>
-      <c r="AH13" s="7">
+      <c r="AH17" s="7">
         <v>0.61629999999999996</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AI17" s="1">
         <v>1E-3</v>
       </c>
-      <c r="AJ13" s="7">
+      <c r="AJ17" s="1">
         <v>1E-3</v>
       </c>
-      <c r="AK13" s="7">
+      <c r="AK17" s="1">
         <v>0</v>
       </c>
-      <c r="AL13" s="7">
+      <c r="AL17" s="1">
         <v>0.01</v>
       </c>
-      <c r="AM13" s="7">
+      <c r="AM17" s="1">
         <v>1.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:39" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="2:39" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-    </row>
-    <row r="17" spans="1:39" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+    </row>
+    <row r="19" spans="1:39" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+    </row>
+    <row r="20" spans="1:39" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+    </row>
+    <row r="21" spans="1:39" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM18" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f>_xlfn.RANK.EQ(D19,D19:D29)</f>
-        <v>1</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5">
-        <v>45862</v>
-      </c>
-      <c r="D19" s="1" cm="1">
-        <f t="array" ref="D19">SUMPRODUCT((E19:AM19=1)*10+(E19:AM19=2)*8+(E19:AM19=3)*6)</f>
-        <v>350</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>1</v>
-      </c>
-      <c r="R19" s="1">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1">
-        <v>1</v>
-      </c>
-      <c r="W19" s="1">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="1">
-        <f>_xlfn.RANK.EQ(AI3,AI3:AI13)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="1">
-        <f>_xlfn.RANK.EQ(AJ3,AJ3:AJ13)</f>
-        <v>1</v>
-      </c>
-      <c r="AK19" s="1">
-        <f>_xlfn.RANK.EQ(AK3,AK3:AK13)</f>
-        <v>1</v>
-      </c>
-      <c r="AL19" s="1">
-        <f>_xlfn.RANK.EQ(AL3,AL3:AL13)</f>
-        <v>1</v>
-      </c>
-      <c r="AM19" s="1">
-        <f>_xlfn.RANK.EQ(AM3,AM3:AM13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f>_xlfn.RANK.EQ(D20,D19:D29)</f>
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="5">
-        <v>45868</v>
-      </c>
-      <c r="D20" s="1" cm="1">
-        <f t="array" ref="D20">SUMPRODUCT((E20:AM20=1)*10+(E20:AM20=2)*8+(E20:AM20=3)*6)</f>
-        <v>334</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>1</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1">
-        <v>1</v>
-      </c>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1">
-        <v>1</v>
-      </c>
-      <c r="V20" s="1">
-        <v>1</v>
-      </c>
-      <c r="W20" s="1">
-        <v>1</v>
-      </c>
-      <c r="X20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="1">
-        <f>_xlfn.RANK.EQ(AI4,AI3:AI13)</f>
-        <v>3</v>
-      </c>
-      <c r="AJ20" s="1">
-        <f>_xlfn.RANK.EQ(AJ4,AJ3:AJ13)</f>
-        <v>2</v>
-      </c>
-      <c r="AK20" s="1">
-        <f>_xlfn.RANK.EQ(AK4,AK3:AK13)</f>
-        <v>3</v>
-      </c>
-      <c r="AL20" s="1">
-        <f>_xlfn.RANK.EQ(AL4,AL3:AL13)</f>
-        <v>3</v>
-      </c>
-      <c r="AM20" s="1">
-        <f>_xlfn.RANK.EQ(AM4,AM3:AM13)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f>_xlfn.RANK.EQ(D21,D19:D29)</f>
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5">
-        <v>45864</v>
-      </c>
-      <c r="D21" s="1" cm="1">
-        <f t="array" ref="D21">SUMPRODUCT((E21:AM21=1)*10+(E21:AM21=2)*8+(E21:AM21=3)*6)</f>
-        <v>320</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>1</v>
-      </c>
-      <c r="R21" s="1">
-        <v>1</v>
-      </c>
-      <c r="S21" s="1">
-        <v>1</v>
-      </c>
-      <c r="T21" s="1">
-        <v>1</v>
-      </c>
-      <c r="U21" s="1">
-        <v>1</v>
-      </c>
-      <c r="V21" s="1">
-        <v>1</v>
-      </c>
-      <c r="W21" s="1">
-        <v>1</v>
-      </c>
-      <c r="X21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="1">
-        <f>_xlfn.RANK.EQ(AI5,AI3:AI13)</f>
-        <v>4</v>
-      </c>
-      <c r="AJ21" s="1">
-        <f>_xlfn.RANK.EQ(AJ5,AJ3:AJ13)</f>
-        <v>3</v>
-      </c>
-      <c r="AK21" s="1">
-        <f>_xlfn.RANK.EQ(AK5,AK3:AK13)</f>
-        <v>6</v>
-      </c>
-      <c r="AL21" s="1">
-        <f>_xlfn.RANK.EQ(AL5,AL3:AL13)</f>
-        <v>2</v>
-      </c>
-      <c r="AM21" s="1">
-        <f>_xlfn.RANK.EQ(AM5,AM3:AM13)</f>
-        <v>3</v>
-      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f>_xlfn.RANK.EQ(D22,D19:D29)</f>
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="5">
-        <v>45866</v>
-      </c>
-      <c r="D22" s="1" cm="1">
-        <f t="array" ref="D22">SUMPRODUCT((E22:AM22=1)*10+(E22:AM22=2)*8+(E22:AM22=3)*6)</f>
-        <v>316</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>1</v>
-      </c>
-      <c r="R22" s="1">
-        <v>1</v>
-      </c>
-      <c r="S22" s="1">
-        <v>1</v>
-      </c>
-      <c r="T22" s="1">
-        <v>1</v>
-      </c>
-      <c r="U22" s="1">
-        <v>1</v>
-      </c>
-      <c r="V22" s="1">
-        <v>1</v>
-      </c>
-      <c r="W22" s="1">
-        <v>1</v>
-      </c>
-      <c r="X22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="1">
-        <f>_xlfn.RANK.EQ(AI6,AI3:AI13)</f>
-        <v>2</v>
-      </c>
-      <c r="AJ22" s="1">
-        <f>_xlfn.RANK.EQ(AJ6,AJ3:AJ13)</f>
-        <v>4</v>
-      </c>
-      <c r="AK22" s="1">
-        <f>_xlfn.RANK.EQ(AK6,AK3:AK13)</f>
-        <v>2</v>
-      </c>
-      <c r="AL22" s="1">
-        <f>_xlfn.RANK.EQ(AL6,AL3:AL13)</f>
-        <v>4</v>
-      </c>
-      <c r="AM22" s="1">
-        <f>_xlfn.RANK.EQ(AM6,AM3:AM13)</f>
-        <v>4</v>
+      <c r="J22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>_xlfn.RANK.EQ(D23,D19:D29)</f>
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
+        <f>_xlfn.RANK.EQ(D23,D$23:D$37)</f>
+        <v>1</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="5">
-        <v>45866</v>
+        <v>45877</v>
       </c>
       <c r="D23" s="1" cm="1">
         <f t="array" ref="D23">SUMPRODUCT((E23:AM23=1)*10+(E23:AM23=2)*8+(E23:AM23=3)*6)</f>
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2967,40 +2987,40 @@
         <v>1</v>
       </c>
       <c r="AI23" s="1">
-        <f>_xlfn.RANK.EQ(AI7,AI3:AI13)</f>
-        <v>5</v>
+        <f>_xlfn.RANK.EQ(AI3,AI$3:AI$17)</f>
+        <v>2</v>
       </c>
       <c r="AJ23" s="1">
-        <f>_xlfn.RANK.EQ(AJ7,AJ3:AJ13)</f>
-        <v>5</v>
+        <f t="shared" ref="AJ23:AM23" si="1">_xlfn.RANK.EQ(AJ3,AJ$3:AJ$17)</f>
+        <v>1</v>
       </c>
       <c r="AK23" s="1">
-        <f>_xlfn.RANK.EQ(AK7,AK3:AK13)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="AL23" s="1">
-        <f>_xlfn.RANK.EQ(AL7,AL3:AL13)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AM23" s="1">
-        <f>_xlfn.RANK.EQ(AM7,AM3:AM13)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>_xlfn.RANK.EQ(D24,D19:D29)</f>
-        <v>8</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="3">
-        <v>45867</v>
+        <f t="shared" ref="A24:A37" si="2">_xlfn.RANK.EQ(D24,D$23:D$37)</f>
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45877</v>
       </c>
       <c r="D24" s="1" cm="1">
         <f t="array" ref="D24">SUMPRODUCT((E24:AM24=1)*10+(E24:AM24=2)*8+(E24:AM24=3)*6)</f>
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -3024,109 +3044,109 @@
         <v>1</v>
       </c>
       <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <v>1</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="1">
+        <f t="shared" ref="AI24:AM37" si="3">_xlfn.RANK.EQ(AI4,AI$3:AI$17)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>1</v>
-      </c>
-      <c r="R24" s="1">
-        <v>1</v>
-      </c>
-      <c r="S24" s="1">
-        <v>1</v>
-      </c>
-      <c r="T24" s="1">
-        <v>1</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1</v>
-      </c>
-      <c r="V24" s="1">
-        <v>1</v>
-      </c>
-      <c r="W24" s="1">
-        <v>1</v>
-      </c>
-      <c r="X24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="1">
-        <f>_xlfn.RANK.EQ(AI8,AI3:AI13)</f>
-        <v>6</v>
-      </c>
-      <c r="AJ24" s="1">
-        <f>_xlfn.RANK.EQ(AJ8,AJ3:AJ13)</f>
-        <v>6</v>
-      </c>
       <c r="AK24" s="1">
-        <f>_xlfn.RANK.EQ(AK8,AK3:AK13)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
-        <f>_xlfn.RANK.EQ(AL8,AL3:AL13)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="AM24" s="1">
-        <f>_xlfn.RANK.EQ(AM8,AM3:AM13)</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f>_xlfn.RANK.EQ(D25,D19:D29)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="5">
-        <v>45868</v>
+        <v>45877</v>
       </c>
       <c r="D25" s="1" cm="1">
         <f t="array" ref="D25">SUMPRODUCT((E25:AM25=1)*10+(E25:AM25=2)*8+(E25:AM25=3)*6)</f>
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -3219,40 +3239,40 @@
         <v>1</v>
       </c>
       <c r="AI25" s="1">
-        <f>_xlfn.RANK.EQ(AI9,AI3:AI13)</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="AJ25" s="1">
-        <f>_xlfn.RANK.EQ(AJ9,AJ3:AJ13)</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="AK25" s="1">
-        <f>_xlfn.RANK.EQ(AK9,AK3:AK13)</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="AL25" s="1">
-        <f>_xlfn.RANK.EQ(AL9,AL3:AL13)</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AM25" s="1">
-        <f>_xlfn.RANK.EQ(AM9,AM3:AM13)</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f>_xlfn.RANK.EQ(D26,D19:D29)</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5">
-        <v>45867</v>
+        <v>45876</v>
       </c>
       <c r="D26" s="1" cm="1">
         <f t="array" ref="D26">SUMPRODUCT((E26:AM26=1)*10+(E26:AM26=2)*8+(E26:AM26=3)*6)</f>
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -3276,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -3345,36 +3365,36 @@
         <v>1</v>
       </c>
       <c r="AI26" s="1">
-        <f>_xlfn.RANK.EQ(AI10,AI3:AI13)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="AJ26" s="1">
-        <f>_xlfn.RANK.EQ(AJ10,AJ3:AJ13)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="AK26" s="1">
-        <f>_xlfn.RANK.EQ(AK10,AK3:AK13)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AL26" s="1">
-        <f>_xlfn.RANK.EQ(AL10,AL3:AL13)</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="AM26" s="1">
-        <f>_xlfn.RANK.EQ(AM10,AM3:AM13)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f>_xlfn.RANK.EQ(D27,D19:D29)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="D27" s="1" cm="1">
         <f t="array" ref="D27">SUMPRODUCT((E27:AM27=1)*10+(E27:AM27=2)*8+(E27:AM27=3)*6)</f>
@@ -3471,309 +3491,1317 @@
         <v>1</v>
       </c>
       <c r="AI27" s="1">
-        <f>_xlfn.RANK.EQ(AI11,AI3:AI13)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AJ27" s="1">
-        <f>_xlfn.RANK.EQ(AJ11,AJ3:AJ13)</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AK27" s="1">
-        <f>_xlfn.RANK.EQ(AK11,AK3:AK13)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="AL27" s="1">
-        <f>_xlfn.RANK.EQ(AL11,AL3:AL13)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AM27" s="1">
-        <f>_xlfn.RANK.EQ(AM11,AM3:AM13)</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f>_xlfn.RANK.EQ(D28,D19:D29)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="D28" s="1" cm="1">
         <f t="array" ref="D28">SUMPRODUCT((E28:AM28=1)*10+(E28:AM28=2)*8+(E28:AM28=3)*6)</f>
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="1">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2</v>
-      </c>
-      <c r="I28" s="1">
-        <v>2</v>
-      </c>
-      <c r="J28" s="1">
-        <v>2</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2</v>
-      </c>
-      <c r="L28" s="1">
-        <v>3</v>
-      </c>
       <c r="M28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="1">
-        <f>_xlfn.RANK.EQ(AI12,AI3:AI13)</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="AJ28" s="1">
-        <f>_xlfn.RANK.EQ(AJ12,AJ3:AJ13)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="AK28" s="1">
-        <f>_xlfn.RANK.EQ(AK12,AK3:AK13)</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="AL28" s="1">
-        <f>_xlfn.RANK.EQ(AL12,AL3:AL13)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="AM28" s="1">
-        <f>_xlfn.RANK.EQ(AM12,AM3:AM13)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>_xlfn.RANK.EQ(D29,D19:D29)</f>
-        <v>11</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="5">
-        <v>45861</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45867</v>
       </c>
       <c r="D29" s="1" cm="1">
         <f t="array" ref="D29">SUMPRODUCT((E29:AM29=1)*10+(E29:AM29=2)*8+(E29:AM29=3)*6)</f>
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1">
+        <v>1</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AK29" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AL29" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45868</v>
+      </c>
+      <c r="D30" s="1" cm="1">
+        <f t="array" ref="D30">SUMPRODUCT((E30:AM30=1)*10+(E30:AM30=2)*8+(E30:AM30=3)*6)</f>
+        <v>298</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AK30" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AL30" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AM30" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45867</v>
+      </c>
+      <c r="D31" s="1" cm="1">
+        <f t="array" ref="D31">SUMPRODUCT((E31:AM31=1)*10+(E31:AM31=2)*8+(E31:AM31=3)*6)</f>
+        <v>300</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1">
+        <v>1</v>
+      </c>
+      <c r="V31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AK31" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AL31" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AM31" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45874</v>
+      </c>
+      <c r="D32" s="1" cm="1">
+        <f t="array" ref="D32">SUMPRODUCT((E32:AM32=1)*10+(E32:AM32=2)*8+(E32:AM32=3)*6)</f>
+        <v>300</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AK32" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AL32" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AM32" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45876</v>
+      </c>
+      <c r="D33" s="1" cm="1">
+        <f t="array" ref="D33">SUMPRODUCT((E33:AM33=1)*10+(E33:AM33=2)*8+(E33:AM33=3)*6)</f>
+        <v>196</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G33" s="1">
         <v>3</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H33" s="1">
         <v>3</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I33" s="1">
         <v>3</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J33" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K33" s="1">
         <v>3</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L33" s="1">
         <v>3</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M33" s="1">
+        <v>3</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <v>3</v>
+      </c>
+      <c r="P33" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>3</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1">
+        <v>3</v>
+      </c>
+      <c r="T33" s="1">
+        <v>3</v>
+      </c>
+      <c r="U33" s="1">
+        <v>3</v>
+      </c>
+      <c r="V33" s="1">
+        <v>3</v>
+      </c>
+      <c r="W33" s="1">
+        <v>3</v>
+      </c>
+      <c r="X33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AJ33" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AK33" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AL33" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AM33" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45862</v>
+      </c>
+      <c r="D34" s="1" cm="1">
+        <f t="array" ref="D34">SUMPRODUCT((E34:AM34=1)*10+(E34:AM34=2)*8+(E34:AM34=3)*6)</f>
+        <v>216</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1">
         <v>4</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2</v>
+      </c>
+      <c r="R34" s="1">
+        <v>2</v>
+      </c>
+      <c r="S34" s="1">
+        <v>2</v>
+      </c>
+      <c r="T34" s="1">
+        <v>2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>2</v>
+      </c>
+      <c r="V34" s="1">
+        <v>2</v>
+      </c>
+      <c r="W34" s="1">
+        <v>2</v>
+      </c>
+      <c r="X34" s="1">
         <v>3</v>
       </c>
-      <c r="N29" s="1">
+      <c r="Y34" s="1">
         <v>3</v>
       </c>
-      <c r="O29" s="1">
+      <c r="Z34" s="1">
         <v>3</v>
       </c>
-      <c r="P29" s="1">
+      <c r="AA34" s="1">
         <v>3</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="AB34" s="1">
         <v>3</v>
       </c>
-      <c r="R29" s="1">
+      <c r="AC34" s="1">
         <v>3</v>
       </c>
-      <c r="S29" s="1">
+      <c r="AD34" s="1">
         <v>3</v>
       </c>
-      <c r="T29" s="1">
-        <v>3</v>
-      </c>
-      <c r="U29" s="1">
-        <v>3</v>
-      </c>
-      <c r="V29" s="1">
-        <v>3</v>
-      </c>
-      <c r="W29" s="1">
-        <v>3</v>
-      </c>
-      <c r="X29" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI29" s="1">
-        <f>_xlfn.RANK.EQ(AI13,AI3:AI13)</f>
+      <c r="AE34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI34" s="1">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="AJ29" s="1">
-        <f>_xlfn.RANK.EQ(AJ13,AJ3:AJ13)</f>
+      <c r="AJ34" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AK34" s="1">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="AK29" s="1">
-        <f>_xlfn.RANK.EQ(AK13,AK3:AK13)</f>
-        <v>11</v>
-      </c>
-      <c r="AL29" s="1">
-        <f>_xlfn.RANK.EQ(AL13,AL3:AL13)</f>
-        <v>11</v>
-      </c>
-      <c r="AM29" s="1">
-        <f>_xlfn.RANK.EQ(AM13,AM3:AM13)</f>
-        <v>11</v>
+      <c r="AL34" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AM34" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45876</v>
+      </c>
+      <c r="D35" s="1" cm="1">
+        <f t="array" ref="D35">SUMPRODUCT((E35:AM35=1)*10+(E35:AM35=2)*8+(E35:AM35=3)*6)</f>
+        <v>300</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1</v>
+      </c>
+      <c r="V35" s="1">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AJ35" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AK35" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AL35" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AM35" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45876</v>
+      </c>
+      <c r="D36" s="1" cm="1">
+        <f t="array" ref="D36">SUMPRODUCT((E36:AM36=1)*10+(E36:AM36=2)*8+(E36:AM36=3)*6)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1">
+        <v>4</v>
+      </c>
+      <c r="L36" s="1">
+        <v>5</v>
+      </c>
+      <c r="M36" s="1">
+        <v>5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>4</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4</v>
+      </c>
+      <c r="P36" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>4</v>
+      </c>
+      <c r="R36" s="1">
+        <v>4</v>
+      </c>
+      <c r="S36" s="1">
+        <v>4</v>
+      </c>
+      <c r="T36" s="1">
+        <v>4</v>
+      </c>
+      <c r="U36" s="1">
+        <v>4</v>
+      </c>
+      <c r="V36" s="1">
+        <v>4</v>
+      </c>
+      <c r="W36" s="1">
+        <v>4</v>
+      </c>
+      <c r="X36" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI36" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AK36" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AL36" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AM36" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45861</v>
+      </c>
+      <c r="D37" s="1" cm="1">
+        <f t="array" ref="D37">SUMPRODUCT((E37:AM37=1)*10+(E37:AM37=2)*8+(E37:AM37=3)*6)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>6</v>
+      </c>
+      <c r="M37" s="1">
+        <v>4</v>
+      </c>
+      <c r="N37" s="1">
+        <v>5</v>
+      </c>
+      <c r="O37" s="1">
+        <v>5</v>
+      </c>
+      <c r="P37" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>5</v>
+      </c>
+      <c r="R37" s="1">
+        <v>5</v>
+      </c>
+      <c r="S37" s="1">
+        <v>5</v>
+      </c>
+      <c r="T37" s="1">
+        <v>5</v>
+      </c>
+      <c r="U37" s="1">
+        <v>5</v>
+      </c>
+      <c r="V37" s="1">
+        <v>5</v>
+      </c>
+      <c r="W37" s="1">
+        <v>5</v>
+      </c>
+      <c r="X37" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI37" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AJ37" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AK37" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AL37" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AM37" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AM13">
-    <sortCondition descending="1" ref="D3:D13"/>
-    <sortCondition ref="C3:C13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AM17">
+    <sortCondition descending="1" ref="D3:D17"/>
+    <sortCondition ref="C3:C17"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B39:O39"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C15:AA15"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:T16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C19:AA19"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:T20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
+++ b/辽河杯赛道一 动态调度问题   初赛榜单（不定期更新）.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DOCS2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889DFCF5-17C5-46FE-B6F7-4BB5100A5B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81E1648-451E-4882-BCB2-F00F29AB21F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -765,7 +765,7 @@
   <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
